--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_spst_08-05.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_spst_08-05.xlsx
@@ -700,11 +700,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="You’re... 12F?;And you are...?", values="1;2")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="12F"] I never thought you’d remember me.
+    <t xml:space="preserve">[Decision(options="You're... 12F?;And you are...?", values="1;2")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="12F"] I never thought you'd remember me.
 </t>
   </si>
   <si>
